--- a/external/WarframeAbilities.xlsx
+++ b/external/WarframeAbilities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\DiscordBot\external\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
   <si>
     <t>Warframe</t>
   </si>
@@ -333,6 +333,339 @@
   </si>
   <si>
     <t>Seeking Talons || Hold to expand the targeting area, release to send Garuda’s talons careening toward each target in area. Surviving enemies are prone to bleeding for 10 seconds. While prone to bleeding enemies can have a 100% chance to be afflicted by slash when the Ability Strength is maxed.</t>
+  </si>
+  <si>
+    <t>Conviction || Harrow possesses 200% Overshields capacity, granting him a maximum of 2,400 Overshields.</t>
+  </si>
+  <si>
+    <t>Condemn || Cast a wave of energy that chains them where they stand. Each enemy held reinforces Harrow’s shields.</t>
+  </si>
+  <si>
+    <t>Penance || Sacrifice all of Harrow's shields to boost reload, and fire rate while converting damage inflicted on enemies into health for Harrow and nearby allies. When paired up with the sentient mod *Guardian* it allows Harrow to fully regain his shield right after casting (Keep in mind, Guardian has a cool down of 30 seconds before it can activate again).</t>
+  </si>
+  <si>
+    <t>Thurible || Channel Harrow’s energy into the Thurible to generate a buff. Once finished, kill enemies to bestow nearby allies with bursts of energy. The more energy channeled the greater the reward for each kill. Headshots produce extra energy.</t>
+  </si>
+  <si>
+    <t>Covenant || Protect nearby allies with an energy force that absorbs all damage and converts it to a Critical Chance bonus for all those under the Covenant. Headshots are amplified even further. In eidolon hunts, Covenant is used to protect allies from damage and magnetic procs caused by the eidolon's discharge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shield Matrix || Hildryn utilizes her advanced Shielding systems to power all of her abilities. Although she has no Energy capacity, her shields boasts additional passive benefits and defensive capabilities. Overshields protect Hyldryn's health pool from damage types that bypass shield like toxin and slash. On shield depletion, Hyldryn becomes invulnerable for 3 seconds. She regains the ability to become on shield depletion once her shield has fully restored. </t>
+  </si>
+  <si>
+    <t>Balefire || Charge and launch devastating bolts of fire. It can be used while Aegis Storm is active.</t>
+  </si>
+  <si>
+    <t>Pillage || Pillage a percentage of Shields and Armor of nearby enemies to replenish Hildryn's own Shields and Overshields. Note that since most infested enemy types do not have shield or armor the ability is rendered ineffective. Maximaze Range in order to reach as many enemies as possible.</t>
+  </si>
+  <si>
+    <t>Haven || Create a shield aura around allies. Enemies that approach shielded allies will take damage.</t>
+  </si>
+  <si>
+    <t>Aegis Storm || Take the skies and rain Balefire rockets down on the enemy. Nearby enemies are blasted into the air where they will create an Energy Orb every few seconds. When shields run out the enemies are smashed into the ground.</t>
+  </si>
+  <si>
+    <t>Deep Tendril ||  Hydroid's every Melee slam attack has a 50% chance to lure a Tentacle that lasts for 15 seconds.</t>
+  </si>
+  <si>
+    <t>Tempest Barrage || Target an area and call down a barrage of liquid fury. Charge this attack to increase the lethality of the onslaught.</t>
+  </si>
+  <si>
+    <t>Tidal Surge || Crash through enemies in a ferocious wall of water. Can be cast while Undertow is active.</t>
+  </si>
+  <si>
+    <t>Undertow || Become a water trap and drown unsuspecting enemies. Allied players can shoot into Undertow to contribute 50% of their total damage from weapons and abilities, distributed evenly to all submerged enemies.</t>
+  </si>
+  <si>
+    <t>Tentacle Swarm || Tap to spawn watery tentacles from all nearby surfaces to wreak havoc. Hold to increase the number of tentacles and spawn area. Use while in Undertow to have the tentacles emerge from the pool. When paired with the *Pilfering Swarm* augment, Tentacle Swarm has a 100% chance at additional drops making it very useful for resource farming.</t>
+  </si>
+  <si>
+    <t>Undying || Rather than having the standard Bleedout state of other Warframes, InarosIcon272 Inaros instead enters an immobile sarcophagus when downed. Aiming at an enemy or ally will siphon life from them, gradually filling his revive meter and allowing Inaros to resurrect himself. Otherwise, he can be revived by other players normally. Killing enemies via Finisher will restore 20% of Inaros' maximum health. This passive does not apply to Ground Finishers.</t>
+  </si>
+  <si>
+    <t>Desiccation || Blast enemies with a wave of cursed sand that blinds them opening them up to a finisher state. Unlike Excalibur's Radial Blind, Desiccation is not blocked by obstacles but is restricted to a cone. Performing finishers on enemies is a quick way to restore health.</t>
+  </si>
+  <si>
+    <t>Devour || Hold power to trap target in quicksand and draw them in for devouring; this steals health and ultimately creates a friendly Sand Shadow. While devouring, Inaros is invulnerable to damage and status effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandstorm || Become a whirling spiral of sand that sends enemies flying and devours those trapped in quicksand. </t>
+  </si>
+  <si>
+    <t>Scarab Swarm || Charge to transform health into hardened scarab armor. Discharge to blast enemies with a scarab swarm; survivors have their health drained and bestowed on allies. *Negation Swarm* is an augment that allows Inaros to block incoming status effects at the cost of bonus armor for every status blocked.</t>
+  </si>
+  <si>
+    <t>Sentry || Ivara has an innate radar that detects enemies within 20 meters and displays their position on the minimap.</t>
+  </si>
+  <si>
+    <t>Quiver || Cycle through and shoot one of four tactical arrows: Cloak, Dashwire, Noise and Sleep. In the Conclave, use the Null-Shield and Slow Arrows.</t>
+  </si>
+  <si>
+    <t>Navigator || Assume control of a projectile and guide it to the target.</t>
+  </si>
+  <si>
+    <t>Prowl || Become invisible and steal loot from unsuspecting enemies or take out prey with deadly headshots. Infiltrate is an augment mod for Ivara that allows her to pass through security barriers unharmed, and increases her movement speed while Prowl is active.</t>
+  </si>
+  <si>
+    <t>Artemis Bow || Summon a mighty bow and unleash a volley of devastating arrows. *Concentrated Arrow* is an augment mod that replaces the standard multi arrow shot to one arrow; on headshot the arrow has increased critcal chance and explodes.</t>
+  </si>
+  <si>
+    <t>Beast Tamer || Khora's ferocious Kavat, Venari, fights alongside her with steadfast zeal. While Venari is alive, Khora passively gains a movement speed boost. If Venari is killed, she will respawn beside Khora after 45 seconds, or instantly if summoned via the third ability for an energy cost. Venari can be upgraded using companion mods.</t>
+  </si>
+  <si>
+    <t>Whipclaw || Send enemies reeling with a deafening whipcrack. *Accumulating Whipclaw* is an augment mod that grants a stacking damage bonus to subsequent Whipclaws upon hitting at least 3 enemies in a single cast, which will decay after 10 seconds.</t>
+  </si>
+  <si>
+    <t>Ensnare || Bind a helpless target in living metal, entangling others who stray too close. Whipclaw will refresh the trap allowing it to capture more enemies. Ensnare has the ability to trap demolyst but will not stop them from detonating on the objective once they begin self-destruct animation.</t>
+  </si>
+  <si>
+    <t>Venari || Command Venari to focus on a target. Hold to cycle between Attack, Protect, and Heal postures. If Venari is killed, use this ability to revive her instantly.</t>
+  </si>
+  <si>
+    <t>Strangledome || Weave a dome of living chain that ensnares and strangles any enemy within, and any foolish enough to approach. Foes outside the trap will try to hasten their comrade's deaths by shooting them. Crack Whipclaw on the dome to further damage any trapped enemies. The augment mod *Pilfering Strangledome* allows enemies caught in the Strangledome a 65% chance to drop additional loot when killed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rift Walk || Limbo has access to the Rift plane, an alternate dimension to the normal environment, or material plane. By performing a Roll, Limbo slides into and out of the Rift plane at will. Limbo can remain indefinitely in the rift, until he performs the triggering maneuvers again, travels freely between both planes via Cataclysm, or is touched by a Nullifier Bubble. </t>
+  </si>
+  <si>
+    <t>Banish || Limbo unleashes a wave of Rift energy toward the aiming reticle. All enemies and allies caught in the wave's extent are banished out of Limbo's current plane of existence. Players affected by Banish can leave the Rift plane by performing a roll. Cataclysm causes Limbo and his allies to enter the Rift plane while inside its influence, allowing them to damage banished enemies outside the Cataclysm.</t>
+  </si>
+  <si>
+    <t>Rift Surge || Surges nearby Rift-bound enemies with Rift energy. When killed the Rift Surge is transferred to a nearby enemy outside the rift. Surged enemies that leave the Rift perform a radial Banish.</t>
+  </si>
+  <si>
+    <t>Cataclysm || A violent blast of void energy tears open a pocket of rift plane which can sustain itself for a short period before collapsing in another lethal blast.</t>
+  </si>
+  <si>
+    <t>Stasis || Freezes Rift-bound enemies. While active, enemy projectiles are arrested in mid-air, resuming its trajectory when stasis ends. This includes enemies inside of Cataclysm. Duration affects the time an enemy is frozen in Stasis.</t>
+  </si>
+  <si>
+    <t>Decoy || Loki deploys a holographic copy of himself, drawing enemy fire.</t>
+  </si>
+  <si>
+    <t>Invisibility || Loki camouflages himself, becoming invisible to enemies.</t>
+  </si>
+  <si>
+    <t>Switch Teleport || Loki instantaneously swaps positions with a target, confusing the enemy. He can swap with his decoy.</t>
+  </si>
+  <si>
+    <t>Radial Disarm || Lets forth a wave of energy, disrupting the projectile weapons of enemies in range and forcing them to revert to melee combat.</t>
+  </si>
+  <si>
+    <t>Wall Grapple || Loki's Wall Latch duration is 10 times that of other Warframes’.</t>
+  </si>
+  <si>
+    <t>Magnetic Attraction || Mag pulls nearby Pickups towards her when Bullet Jumping, similar to the mod *Vacuum*.</t>
+  </si>
+  <si>
+    <t>Pull || Magnetic force pulls enemies toward you, stunning them and bringing them into melee range.</t>
+  </si>
+  <si>
+    <t>Magnetize || Creates a magnetic field around a target, ensnaring nearby enemies and dealing damage over time. The field reacts to bullets and shards created from Polarize to increase the damage.</t>
+  </si>
+  <si>
+    <t>Polarize || Emit an energy pulse that depletes enemy shields and armor, creating shards which become deadly when mixed with Magnetize. Shields of allies touched by the pulse are restored. *Counter Pulse* is an augment mod that jams enemy weapons and disables robotics. Infested enemy types don't typically carry weapons rendering this ability ineffective.</t>
+  </si>
+  <si>
+    <t>Crush || Magnetizes the bones of nearby enemies, causing them to collapse upon themselves.</t>
+  </si>
+  <si>
+    <t>Marksman's Dexterity || Mesa gains the following passives under the accompanying conditions: +15% fire rate with dual wielded sidearms, +25% reload speed for one handed sidearms, and/or +50 health when a melee weapon is not equipped.</t>
+  </si>
+  <si>
+    <t>Ballistic Battery || When activated, this power stores damage caused by guns. When triggered again, that damage is channeled through the next gunshot. It has a cap of 1600 stored damage plus the equipped weapon's damage (not affected by *base* weapon damage mods).</t>
+  </si>
+  <si>
+    <t>Shooting Gallery || Gives an ally extra damage while jamming the guns of nearby enemies. This power shifts between team members.</t>
+  </si>
+  <si>
+    <t>Shatter Shield || Envelops Mesa in a barrier of energy, reflecting back incoming bullet damage. Ability strength increases damage reduction.</t>
+  </si>
+  <si>
+    <t>Peacemaker || With intense focus, Mesa draws her Regulator pistols, shooting down enemies within the focus ring. Each gunshot fired from Mesa's Regulators decrease the focus ring by 15° and will hit enemies up to 50 meters away. The rate of fire is ramped up by each gunshot and will reset after the firing button is released. Ability efficiency and duration affect Peacemaker's energy drain. *Mesa's Waltz* is an augment mod that allows Mesa to walk at 50% speed while using Peacemaker.</t>
+  </si>
+  <si>
+    <t>Jester's Proficiency || Mirage has an increased proficiency when performing the following:  +25% faster Bullet Jump speed, and +50% faster Maneuver speed.</t>
+  </si>
+  <si>
+    <t>Hall of Mirrors || Mirage creates an entourage of doppelgangers to confuse and distract the enemy. Each hologram is invulnerable to damage, draws enemy attention, and deals 5% / 10% / 15% / 20% of the current weapon's total damage.</t>
+  </si>
+  <si>
+    <t>Sleight Of Hand || Booby trap nearby objects while conjuring an irresistible jewel that bursts with radial blind when touched in darkness, or a radial explosion in light. Conjure multiple smaller jewels with the help of Hall of Mirrors.</t>
+  </si>
+  <si>
+    <t>Eclipse || Standing in light, Mirage deals heavy damage, while the shadows make Mirage difficult to track and even harder to hurt.</t>
+  </si>
+  <si>
+    <t>Prism || Fires an energy prism that shoots lasers in all directions. Activating again detonates the prism, blinding nearby foes.</t>
+  </si>
+  <si>
+    <t>Soul Siphon || A master of death, Nekros regenerates 5 points of Health any time an enemy dies within 10 meters of him. His passive also can heal Companions.</t>
+  </si>
+  <si>
+    <t>Soul Punch || A blow so powerful, it turns the enemy's very soul into a deadly projectile, damaging all in its path.</t>
+  </si>
+  <si>
+    <t>Terrify || Casts fear into the hearts of nearby enemies, causing them to run away in terror.</t>
+  </si>
+  <si>
+    <t>Desecrate || Forces fallen enemies around you to drop additional loot. *Despoil* is an augment mod that allows Nekros to consume health instead of energy to cast Desecrate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadows Of The Dead || Summons shadow versions of vanquished enemies to fight alongside you for a short period of time. Shadow copies are taken from the last 20 enemies killed by both Nekros and his Shadows; teammate and Companion kills do not count. Certain special units, like Kuva Guardians, cannot by copied. Enemies that spawn additional enemies can add to the number of shadows. </t>
+  </si>
+  <si>
+    <t>Frictionless || Nezha slides 60% faster and goes 35% farther.</t>
+  </si>
+  <si>
+    <t>Fire Walker || Blaze a trail of flames, scorching enemies and cleansing allies. Teleporting blasts the landing area with a ring of fire.</t>
+  </si>
+  <si>
+    <t>Blazing Chakram || Hurl a flaming ring that sets enemies ablaze making them vulnerable to any damage (Marked enemies take 100% more damage). Flaming enemies drop health orbs on death and a 35% chance to drop energy orbs. Charge to amplify the power of the ring, and reactivate to instantly travel to the ring's location.</t>
+  </si>
+  <si>
+    <t>Warding Halo || Create a protective ring of fire absorbing 90% of all incoming damage for the remainder of Warding Halo's health. It stuns and damage enemies who get too close.</t>
+  </si>
+  <si>
+    <t>Divine Spears || Impale nearby enemies on spears that erupt from the below. Activate again to slam surviving enemies back into the ground. It synegizes with Blazing Chakram, as Blazing Chakram opens enemies for 100% additional damage and hitting a speared enemy with Blazing Chakram produces a second chakram, which fires at a nearby enemy.</t>
+  </si>
+  <si>
+    <t>Virulence || Rupture the ground with a damaging fungal growth that steals energy from each enemy it strikes. For every five enemies hit, the Infestation mutates, multiplying its destructive force. It refunds some energy and gains a stack for each enemy hit (it'll refund the ability's cost with 4 targets hit). The more stacks nidus has, the more damage Virulence deals. The augment mod *Teeming Virulence* grants increased critical chance for Nidus' primary weapon upon hitting 4 enemies with a single use of Virulence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larva || Spawns an Infested pod that erupts with tendrils, latches onto nearby enemies and pulls them in. The augment mod *Larva Burst* allows the player to detonate Larva by recasting the ability dealing toxin damage proportional to the amount of enemies trapped in Larva before recasting. </t>
+  </si>
+  <si>
+    <t>Parasitic Link || At the cost of a single stack, bind to a target with a parasitic link. For allies, both the host and Nidus gain increased Ability Strength. Linked enemies take the damage inflicted on Nidus.</t>
+  </si>
+  <si>
+    <t>Ravenous || At the cost of three stacks, gluttonous maggots swarm nearby enemies, feasting until they burst with Infestation. The maggots benefit from Mutation and each enemy consumed adds to the Mutation stack. Nidus and his allies will regenerate health per second while inside the spawning grounds (health regen is affected by ability strength).</t>
+  </si>
+  <si>
+    <t>Adaptive Mutation || The Infestation dwelling within Nidus mutates rapidly when used against his foes, fueling his abilities and yielding various symbiotic benefits. Mutation Stacks are a resource unique to Nidus, and can stack up to a maximum of 100 stacks. If Nidus suffers fatal damage with at least 15 stacks of Mutation, those 15 stacks are consumed, granting him 5 seconds of invulnerability and restoring 50% of his health otherwise Nidus is downed.</t>
+  </si>
+  <si>
+    <t>Explosive Counter || Whenever Nova is knocked down, she emits a neutron burst which knocks down and damages enemies in a 6 meter radius.</t>
+  </si>
+  <si>
+    <t>Null Star || Creates anti-matter particles that orbit Nova and seek nearby targets. Each particle orbiting Nova provides 5% damage reduction, maxmium duration increases the particle count to 18 totalling to 90% damage reduction.</t>
+  </si>
+  <si>
+    <t>Antimatter Drop || Launches a contained particle of antimatter that absorbs all damage (friendly and hostile) when shot at, and once the particle makes contact with a solid object it will detonate and inflict stored damage. One particle can store up to 50k damage.</t>
+  </si>
+  <si>
+    <t>Worm Hole || Creates a wormhole allowing instantaneous travel. This is theoritically the second fastest form of travel in the game behind the Itzal archwing.</t>
+  </si>
+  <si>
+    <t>Molecular Prime || Primes all enemies in a radius with anti-matter slowing them and exposing them to 200% more damage from all sources. The wave's spread is tied to duration with a maximum possible duration of 18.36 seconds. *Molecular Fission* is an augment mod that that makes primed enemies restore Null Star particles when killed.</t>
+  </si>
+  <si>
+    <t>Evasion || Enemies are 20% less accurate when targeting Nyx while absorb is active.</t>
+  </si>
+  <si>
+    <t>Mind Control || Nyx invades the psyche of a target, confusing enemies and making them fight for the Tenno cause. Targets then fired upon by Nyx receive a damage multiplier. Target is initially stunned for a brief duration, any damage Nyx inflicts to the mind controlled target during this period is absorbed and converted to increase the target's damage output.</t>
+  </si>
+  <si>
+    <t>Psychic Bolts || Nyx launches a cluster of force bolts at enemies, using telekinesis to adjust flight paths and seek nearby targets. Hits strip some enemy defenses. Psychic Bolts can be recasted while the ability is still active, doing so will cancel the effect on previous remaining target before moving on to a new set of targets.</t>
+  </si>
+  <si>
+    <t>Chaos || With a powerful psychic blast, Nyx causes mass hysteria on the battlefield by confusing all enemies to attack random factions.</t>
+  </si>
+  <si>
+    <t>Absorb || Nyx absorbs all incoming damage and channels that collected energy into an explosive radial discharge. *Assimilate* is an augment mod that allows Nyx to move at 50% speed while using absorb and the area is reduced by half. While using this mod, operator mode is a valuable means of travel</t>
+  </si>
+  <si>
+    <t>Beastmaster || Allied Kubrows and Kavats (Except Venari) receive +25% Health, Shield and Armor links. The player's Kubrow or Kavat receives 1 instant revive per mission.</t>
+  </si>
+  <si>
+    <t>Smite || Focuses deadly energy within a target and then projects it outwards, damaging both the target and surrounding enemies. The target emits 6 orbs that seek out enemies, each orb deals 150 radiation plus 35% of the main target's maximum health. This ability scales with ability strength.</t>
+  </si>
+  <si>
+    <t>Renewal || Healing waves of energy flow outward from Oberon to his allies, regenerating health over time. Health regenerated over time is affected by ability strength. This effect can also be applied to defense operatives and Kavor defectors.</t>
+  </si>
+  <si>
+    <t>Hallowed Ground || Sanctifies the ground before Oberon with righteous fire, inflicting damage to any enemy that stands in the flames. While Renewal's buff is active on Oberon or allies, and they're standing on Hallowed Ground, they will receive an Iron Renewal buff which grants 200 bonus armor (armor bonus is affected by ability strength). This effect can also be applied to defense operatives and Kavor defectors.</t>
+  </si>
+  <si>
+    <t>Reckoning || Quickly lifts enemies into the air and then hurls them down with conviction. Enemies who succumb to this power have a chance to spawn a Health Sphere. Affected enemies that survive the impact will emit an intense flash of light, blinding surrounding enemies and when said suriving enemies are standing on Hallowed Ground their armor is permantly reduced by 30% (armor reduction affected by ability strength).</t>
+  </si>
+  <si>
+    <t>Harmonic Symphony || The Mandachord is a step sequencer that allows the player to compose unique songs and conduct them in full symphony through Octavia's abilities. It is possible to optimize the Mandachord notes so that the player may spam manuevers to quickly activate Metronome buffs. Casting any ability will inspire Octavia and nearby allies with her music, granting the Inspiration buff that replenishes 1 energy per second for 30 seconds. Allies within 15 meters will receive the Inspiration buff.</t>
+  </si>
+  <si>
+    <t>Mallet || Rhythmically beats damage into nearby enemies and draws their fire. Damage inflicted on the Mallet scales infinitely with the enemy's level/damage output. When Mallet and Resonator130xDark Resonator are both active, Resonator will reroute toward the Mallet and carry it around.</t>
+  </si>
+  <si>
+    <t>Resonator || Launches a rollerball that charms foes to follow like a congaline. Combines with the Mallet to create a roving ball of sonic destruction (foes shoot the mallet instead of just following the Resonator ball).</t>
+  </si>
+  <si>
+    <t>Metronome || Grants buffs to those who consistently perform actions in time to Octavia’s music. Timed jumps offer the Vivace speed buff. Crouching on the beat grants cloaking with the Nocturne buff. Firing rhythmically bestows Opera multishot buff. Timed melee swings give the Forte damage buff. While inside the melodic aura, allies gain a 35% armor boost.</t>
+  </si>
+  <si>
+    <t>Amp || Draws power from the decibel level of sound in the area and uses it to amplify a damage buff for Octavia and her allies. It also doubles the damage and range of nearby Mallets.</t>
+  </si>
+  <si>
+    <t>Sentient Retaliation || Revenant is immune to the Magnetic b Magnetic night waters of the Plains of Eidolons. Revenant's Mesmer Skin is entirely immune to certain attacks from Teralyst, Gantulyst and Hydrolyst such as Seeking Bullets and Gun Swing without draining any charges. Additionally, when his Shield depletes, Revenant emits a radial blast that knocks down nearby enemies.</t>
+  </si>
+  <si>
+    <t>Enthrall || Convert a target into a zealous thrall. Thralls turn on their allies and enthrall through damage. On death, they disintegrate into a damaging pillar of energy. The thrall horde remains under Revenant’s spell until this Ability runs out.</t>
+  </si>
+  <si>
+    <t>Mesmer Skin || Become enveloped in Sentient energy, which redirects damage and stuns all those who dare attack. Stunned enemies can be Enthralled at no energy cost.</t>
+  </si>
+  <si>
+    <t>Reave || Dash through enemies as a wall of Sentient energy, leeching shields and health from any encountered, enhanced for thralls. With a high mouse sensitivity, it is possible to circle around an enemy to kill them before the end of the ability's duration when combined with Enthrall as Reave steals shields and health 5 times more from thralls.</t>
+  </si>
+  <si>
+    <t>Danse Macabre || Erupt with a multitude of Eidolon energy beams and sweep a circle of death around Revenant. The beams will modify their Damage Type to target select defenses, while incoming damage is redirected back into the beams. Hold fire to boost Status Effects and Damage, at the cost of increased energy consumption. Thralls killed by this leave overshield pickups.</t>
+  </si>
+  <si>
+    <t>Heavy Landing || If Rhino incurs a Hard Landing, the ground impact will discharge a shockwave that deals damage in a 6 meter area of effect and knocking down nearby enemies.</t>
+  </si>
+  <si>
+    <t>Rhino Charge || Rhino charges towards a target, clobbering any in his path and goring his victim. The augment mod *Ironclad Charge* tempoarily increases Rhino's armor for each enemy hit by Rhino Chage potentially increasing Iron Skin's health.</t>
+  </si>
+  <si>
+    <t>Iron Skin || Rhino hardens his skin, insulating himself from all damage. Upon activation, Iron Skin is invulnerable for 3 seconds, all incoming damage that is absorbed during this  period is converted into health and added to Iron Skin's health. *Iron Shrapnel* allows Rhino to recast Iron Skin to detonate dealing 100% of it's remaining health as puncture damage and knocking down enemies.</t>
+  </si>
+  <si>
+    <t>Rhino Stomp || Rhino stomps with force sufficient to suspend enemies in the air around him for a short period of time. *Reinforcing Stomp* is an augment mod for Rhino that replenishes Iron Skin's health for each enemy affected by Rhino Stomp.</t>
+  </si>
+  <si>
+    <t>Roar || Grants all nearby Warframes increased damage for a short duration (Damage increase is affected by ability strength).</t>
+  </si>
+  <si>
+    <t>Potency || Status Effects inflicted by Saryn's weapons and abilities last 25% longer.</t>
+  </si>
+  <si>
+    <t>Spores || Inflict a target with a pox of Corrosive w/ Corrosive spores. Spread spores to nearby enemies by destroying them or killing their host. The longer the Spore outbreak is active, the higher the damage will increase. The damage output of spores is presented above the ability icon hud and tracks the number of infected enemies as well. Range mods allow for flexibility to maintain the outbreak.</t>
+  </si>
+  <si>
+    <t>Molt || Shedding her skin like a snake, Saryn leaves a decoy behind to draw fire from enemies while granting her a small boost in speed. *Regenerative Molt* is an augment mod for Saryn that allows her to regenerate health over a span of time after casting Molt.</t>
+  </si>
+  <si>
+    <t>Toxic Lash || While active, attacks deal additional Toxin w Toxin damage; this effect is doubled for melee strikes. Instantly burst spores when attacking afflicted enemies without having to necessarily kill them first.</t>
+  </si>
+  <si>
+    <t>Miasma || Releases a poisonous miasma that deals Viral w Viral damage to enemies in range. Foes afflicted by spores are more susceptible to the mist.</t>
+  </si>
+  <si>
+    <t>Dust Bloom || Titania gains +25% Bullet Jump and Rolling distance. Bullet jumping also creates a trampoline that lasts 5 seconds and grants the Upsurge buff, giving the same +25% distance to Bullet Jump and Rolling maneuvers performed in the area for her allies.</t>
+  </si>
+  <si>
+    <t>Spellbind || Enemies fumble their weapons as they tumble into the air. Nearby allies become immune to Status Effects.</t>
+  </si>
+  <si>
+    <t>Tribute || Extract an offering from an enemy in the form of a random Ability Buff: Dust reduces the accuracy of enemies, Thorns reflect 50% of damage back to the attacker, Entangle slows down enemy movement, and Full Moon increases the damage of companions/allies. Survivor's attacks are weakened.</t>
+  </si>
+  <si>
+    <t>Lantern || Create a swarm of razorflies that transform an enemy into an irresistible floating beacon, attracting witless comrades before exploding on command.</t>
+  </si>
+  <si>
+    <t>Razorwing || Titania shrinks down to quarter of her original size, becoming a flying pixie. In this form, Titania permanently remains in mid-air, using specialized control mechanics to move around the battlefield. She exchanges all of her normal weapons for her two exalted weapons: Dex Pixia and Diwata. While Razorwing is active, Titania will also command 6 Razorfly drones to attack nearby enemies. *Razorwing Blitz* is an augment mod that increases Razorwing's flight speed and fire rate when using her other abilities.</t>
+  </si>
+  <si>
+    <t>Triage || Trinity can revive fallen allies 20% faster (reviving them in 4 seconds as opposed to 5 seconds) and from further away.</t>
   </si>
 </sst>
 </file>
@@ -368,10 +701,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,153 +1260,486 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
+      </c>
+      <c r="F31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" t="s">
+        <v>195</v>
+      </c>
+      <c r="E32" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D33" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" t="s">
+        <v>206</v>
+      </c>
+      <c r="F34" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" t="s">
+        <v>210</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/external/WarframeAbilities.xlsx
+++ b/external/WarframeAbilities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="248">
   <si>
     <t>Warframe</t>
   </si>
@@ -666,6 +666,108 @@
   </si>
   <si>
     <t>Triage || Trinity can revive fallen allies 20% faster (reviving them in 4 seconds as opposed to 5 seconds) and from further away.</t>
+  </si>
+  <si>
+    <t>Well Of Life || Create a well of life on an enemy. Allies will gain health when damaging the target.</t>
+  </si>
+  <si>
+    <t>Link || Any damage taken while Link is active will be channeled to a nearby enemy.</t>
+  </si>
+  <si>
+    <t>Blessing || Restore the health and shields of allies within Trinity's Affinity aura while giving them some damage resistance.</t>
+  </si>
+  <si>
+    <t>Energy Vampire || Allies will gain energy over time when enemies are marked with Energy Vampire. *Vampire Leech* is a augment mod that converts excess energy into shields and will even boost into overshields.</t>
+  </si>
+  <si>
+    <t>Nimble || Valkyr is nimble and able to recover from knockdown 50% faster and is immune to Hard Landings, landing with no touchdown delay.</t>
+  </si>
+  <si>
+    <t>Rip Line || Valkyr hurls forth a hook. If it hits an enemy, she pulls them to her. If it hits terrain, she pulls herself to the hook's location.</t>
+  </si>
+  <si>
+    <t>Warcry || Valkyr lets out a rallying cry, bolstering the attack speed and defenses of herself and her allies while diminishing the attack speed and mobility of her enemies. Ability strength increases the attack speed and armor buff while reducing enemy speed even further.</t>
+  </si>
+  <si>
+    <t>Paralysis || Valkyr drains 33% of her shields, stunning and damaging enemies around her.</t>
+  </si>
+  <si>
+    <t>Hysteria || Overcome with rage, Valkyr unleashes her exalted weapons, the Valkyr Talons. They can be customized with weapon mods.</t>
+  </si>
+  <si>
+    <t>Dismantle || Vauban deals 25% extra damage to enemies that are incapacitated and unable to move, such as those affected by Bastille or Vortex.</t>
+  </si>
+  <si>
+    <t>Tesla || Launches a grenade that holds an electrical charge, zapping enemies that come within range.</t>
+  </si>
+  <si>
+    <t>Minelayer || Vauban throws one of his variety of specialized grenades that deploys into a landmine depending on the selected type: the Bounce grenade deploys into a launch pad that launches allies/enemies, the Trip Laser grenade falls to the ground then deploys into a 10 meters long laser trip wire that stuns or knocks down enemies, the Shred grenade falls to the ground then deploys into an armed explosive landmine that blow enemies away and strip their armor by 30%/40% for 4 seconds, the Concuss grenade falls to the ground then deploys into an armed concussive landmine that have enemies suffer a radiation proc.</t>
+  </si>
+  <si>
+    <t>Bastille || Creates an energy-based containment field in which captives are held suspended in stasis. *Repelling Bastille* is an augment mod that repels additional enemies from entering Bastille when it reaches the maximum amount of enemies it can contain.</t>
+  </si>
+  <si>
+    <t>Vortex || Creates a whirling mass of energy that violently attracts nearby enemies, crushing their atoms into a tiny spec of matter. The warframe augment mod *Perpetual Vortex* increases the duration of the Vortex for every additional Vortex thrown into it.</t>
+  </si>
+  <si>
+    <t>Static Discharge || Traveling along the ground between Volt's attacks (by walking, running, or sliding) will build up static energy, adding bonus electricity damage toward Volt's next weapon attack or ability cast.</t>
+  </si>
+  <si>
+    <t>Shock || Launches a shocking projectile. It stuns and deals high damage to a single target and chains damage to nearby enemies.</t>
+  </si>
+  <si>
+    <t>Speed || Gain a brief boost of movement speed which affects all allies in range.</t>
+  </si>
+  <si>
+    <t>Electric Shield || Shots fired through Electric Shield by Volt and his allies will gain 50% Electricity damage, and critical damage will be multiplied by 200%.</t>
+  </si>
+  <si>
+    <t>Discharge || Paralyze nearby hostiles with a damaging electric charge, this also shocks approaching enemies. Capacitance is an augment mod for Volt that converts a percentage of damage dealt by Discharge into shields, split between himself and allies.</t>
+  </si>
+  <si>
+    <t>Phased || Wisp weaves between dimensions whilst she is airborne, gaining a cloak that renders her and her Companions completely invisible to enemies until she lands or fires a weapon.</t>
+  </si>
+  <si>
+    <t>Reservoirs || Choose and summon a Reservoir filled with Motes that attach to and aid Wisp and her allies. Haste Mote grants increased movement and attack speed. Vitality Mote increases maximum health and heals over time. Shock Mote stuns nearby enemies.</t>
+  </si>
+  <si>
+    <t>Wil-O-Wisp || Wisp fades between dimensions, cloaking herself and her Companion from enemy eyes while spawning a spectral copy of herself that flies toward the last position of the reticle when activated. Reactivate to travel to its position. Hold to have the image travel faster and teleport to its position on release. Wisp gains invulnerability for 3 seconds after teleporting.</t>
+  </si>
+  <si>
+    <t>Breach Surge || Open a dimensional breach to overwhelm nearby enemies and cause them to release aggressive Surge sparks when damaged. Wisp may also target a Reservoir to teleport to it and double the range of the surge. Breach Surge does not leave enemies open to melee finishers.</t>
+  </si>
+  <si>
+    <t>Sol Gate || Open a portal to the sun to irradiate enemies with a devastating beam of pure solar plasma. Hold fire to double the damage at the cost of increased energy consumption. For the duration of an attack enemies damaged by Sol Gate are increasingly more vulnerable to it. The haste mote allows Sol Gate to deal corrosive procs (not damage) on every damge instance, the shock mote and vitality mote each provide a 25% damage increase.</t>
+  </si>
+  <si>
+    <t>Five Levels of Immortality || Wukong has learned five techniques to avoid death whenever he takes fatal damage. Wukong will be randomly allowed 3 of these techniques per mission to avoid death 3 times. The techniques are: Primal Forces grants 300% additional elemental damage for 60 seconds, Heavenly Cloak grants Invisibility for 30 seconds, Cosmic Armour makes Wukong Invulnerable for 30 seconds, Monkey Luck increases the chance for extra loot drops for 60 seconds amd Sly Alchemy makes orbs 4x more effective for 60 seconds.</t>
+  </si>
+  <si>
+    <t>Celestial Twin || Shedding part of himself, Wukong creates a twin to fight by his side. Attack at range and the twin will melee, pull a blade and the twin will lay down covering fire. Use again to command the twin to attack a target with increased damage. The Celestial Twin will mimmick Wukong's other abilities on cast.</t>
+  </si>
+  <si>
+    <t>Cloud Walker || Evaporate into a cloud of mist and float through the battlefield, dazing any enemy encountered, while healing Wukong and his twin.</t>
+  </si>
+  <si>
+    <t>Defy || Wukong and his twin become invulnerable and defy enemies to attack. All damage is captured, stored, and dealt back in a single furious strike of Wukong's staff. Bonus Armor is then granted relative to the damage captured.</t>
+  </si>
+  <si>
+    <t>Primal Fury || Wukong equips his exalted weapon, the legendary Iron Staff. It can be equipped with mods.</t>
+  </si>
+  <si>
+    <t>Lightweight || Zephyr is significantly lighter in comparison to other Warframes.</t>
+  </si>
+  <si>
+    <t>Tail Wind || From the ground, charge and release to launch Zephyr into an airborne hover. From the air, tap to dash forward, or aim down to dive bomb enemies below.</t>
+  </si>
+  <si>
+    <t>Airburst || Generate a burst of massively dense air that explodes on contact and sends enemies flying. Launch Airbursts into Tornadoes to make them grow.</t>
+  </si>
+  <si>
+    <t>Turbulence || Creates a wind shield around Zephyr, redirecting all incoming projectiles. The radius of the shield is affected by ability range.</t>
+  </si>
+  <si>
+    <t>Tornado || Create deadly tornadoes that seek out and engulf enemies. Tornadoes deal the elemental damage type they absorb the most. Shoot enemies engulfed in Tornadoes to do additional damage. Funnel Clouds is a augment mod that increases the number of active Tornadoes while decreasing their size and removes their ability to pick up enemies.</t>
   </si>
 </sst>
 </file>
@@ -991,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,35 +1805,137 @@
       <c r="B36" t="s">
         <v>213</v>
       </c>
+      <c r="C36" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D36" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
+      <c r="B37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" t="s">
+        <v>219</v>
+      </c>
+      <c r="D37" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+      <c r="F37" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
+      <c r="B38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" t="s">
+        <v>225</v>
+      </c>
+      <c r="E38" t="s">
+        <v>226</v>
+      </c>
+      <c r="F38" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" t="s">
+        <v>230</v>
+      </c>
+      <c r="E39" t="s">
+        <v>231</v>
+      </c>
+      <c r="F39" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="40" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
+      <c r="B40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="41" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
+      <c r="B41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+      <c r="D41" t="s">
+        <v>240</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" t="s">
+        <v>245</v>
+      </c>
+      <c r="E42" t="s">
+        <v>246</v>
+      </c>
+      <c r="F42" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25"/>
